--- a/tabular/eve/ecv-cress-side-data.xlsx
+++ b/tabular/eve/ecv-cress-side-data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F884D40-78CE-6B49-9B39-F77E18D1C2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03802C-E3B8-FC40-AE8B-B27DE38F1F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="460" windowWidth="38340" windowHeight="24760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="460" windowWidth="38340" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecv-circo-side-data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="594">
   <si>
     <t>record_id</t>
   </si>
@@ -2658,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11351,4 +11352,1639 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84A1724-2182-F444-B2DB-F96B7CF97E59}">
+  <dimension ref="A1:C147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C147" sqref="A2:C147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2">
+        <v>47238820</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3">
+        <v>52360692</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1846</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>9580</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>2601</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>5249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>6875</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>3510</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>8023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>40445</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>5360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>3381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>3381</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>5360</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16">
+        <v>115922</v>
+      </c>
+      <c r="C16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17">
+        <v>15921</v>
+      </c>
+      <c r="C17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18">
+        <v>5880</v>
+      </c>
+      <c r="C18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19">
+        <v>1046</v>
+      </c>
+      <c r="C19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20">
+        <v>1454</v>
+      </c>
+      <c r="C20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22">
+        <v>813</v>
+      </c>
+      <c r="C22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24">
+        <v>705</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25">
+        <v>787790</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26">
+        <v>2537</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27">
+        <v>1322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29">
+        <v>689</v>
+      </c>
+      <c r="C29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30">
+        <v>13037</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32">
+        <v>21414</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34">
+        <v>643</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35">
+        <v>1435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36">
+        <v>3308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37">
+        <v>2087</v>
+      </c>
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>2415</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39">
+        <v>2349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40">
+        <v>7742</v>
+      </c>
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>7992</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>23032</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>81774</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>87533</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>99328</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>25025</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <v>15115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49">
+        <v>84508</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>7439</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51">
+        <v>82443</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52">
+        <v>2901</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>54268</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54">
+        <v>4482</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55">
+        <v>3631</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>519</v>
+      </c>
+      <c r="B56">
+        <v>177293</v>
+      </c>
+      <c r="C56" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57">
+        <v>2369166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58">
+        <v>2372621</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59">
+        <v>2376958</v>
+      </c>
+      <c r="C59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60">
+        <v>43997</v>
+      </c>
+      <c r="C60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61">
+        <v>55457</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62">
+        <v>41429</v>
+      </c>
+      <c r="C62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63">
+        <v>57998</v>
+      </c>
+      <c r="C63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64">
+        <v>678</v>
+      </c>
+      <c r="C64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65">
+        <v>370</v>
+      </c>
+      <c r="C65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>332</v>
+      </c>
+      <c r="B66">
+        <v>272</v>
+      </c>
+      <c r="C66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67">
+        <v>819</v>
+      </c>
+      <c r="C67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68">
+        <v>537</v>
+      </c>
+      <c r="C68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>332</v>
+      </c>
+      <c r="B69">
+        <v>644</v>
+      </c>
+      <c r="C69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>332</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71">
+        <v>484</v>
+      </c>
+      <c r="C71" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72">
+        <v>528</v>
+      </c>
+      <c r="C72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73">
+        <v>2676</v>
+      </c>
+      <c r="C73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>365</v>
+      </c>
+      <c r="B74">
+        <v>2812</v>
+      </c>
+      <c r="C74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75">
+        <v>528</v>
+      </c>
+      <c r="C75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76">
+        <v>2782</v>
+      </c>
+      <c r="C76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77">
+        <v>202</v>
+      </c>
+      <c r="C77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>357</v>
+      </c>
+      <c r="B79">
+        <v>1339</v>
+      </c>
+      <c r="C79" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81">
+        <v>612</v>
+      </c>
+      <c r="C81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82">
+        <v>2676</v>
+      </c>
+      <c r="C82" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84">
+        <v>612</v>
+      </c>
+      <c r="C84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>381</v>
+      </c>
+      <c r="B86">
+        <v>158</v>
+      </c>
+      <c r="C86" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87">
+        <v>1030</v>
+      </c>
+      <c r="C87" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88">
+        <v>795</v>
+      </c>
+      <c r="C88" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>404</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>414</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>314</v>
+      </c>
+      <c r="B91">
+        <v>1895</v>
+      </c>
+      <c r="C91" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92">
+        <v>310038</v>
+      </c>
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93">
+        <v>54808</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94">
+        <v>183797</v>
+      </c>
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95">
+        <v>5477</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96">
+        <v>99804</v>
+      </c>
+      <c r="C96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97">
+        <v>20191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98">
+        <v>38049</v>
+      </c>
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102">
+        <v>410</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>473</v>
+      </c>
+      <c r="B103">
+        <v>1051475</v>
+      </c>
+      <c r="C103" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104">
+        <v>4913</v>
+      </c>
+      <c r="C104" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>483</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>483</v>
+      </c>
+      <c r="B106">
+        <v>55356</v>
+      </c>
+      <c r="C106" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>495</v>
+      </c>
+      <c r="B107">
+        <v>512475</v>
+      </c>
+      <c r="C107" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>495</v>
+      </c>
+      <c r="B108">
+        <v>4187274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>495</v>
+      </c>
+      <c r="B109">
+        <v>1425</v>
+      </c>
+      <c r="C109" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>495</v>
+      </c>
+      <c r="B110">
+        <v>763109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111">
+        <v>3027370</v>
+      </c>
+      <c r="C111" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112">
+        <v>1340078</v>
+      </c>
+      <c r="C112" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>495</v>
+      </c>
+      <c r="B113">
+        <v>893628</v>
+      </c>
+      <c r="C113" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114">
+        <v>50249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>463</v>
+      </c>
+      <c r="B115">
+        <v>38787</v>
+      </c>
+      <c r="C115" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116">
+        <v>1580</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117">
+        <v>262333</v>
+      </c>
+      <c r="C117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118">
+        <v>1096160</v>
+      </c>
+      <c r="C118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119">
+        <v>1398</v>
+      </c>
+      <c r="C119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120">
+        <v>2353</v>
+      </c>
+      <c r="C120" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>537</v>
+      </c>
+      <c r="B122">
+        <v>1027</v>
+      </c>
+      <c r="C122" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>537</v>
+      </c>
+      <c r="B123">
+        <v>1449</v>
+      </c>
+      <c r="C123" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>537</v>
+      </c>
+      <c r="B124">
+        <v>421</v>
+      </c>
+      <c r="C124" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>537</v>
+      </c>
+      <c r="B125">
+        <v>2939</v>
+      </c>
+      <c r="C125" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>537</v>
+      </c>
+      <c r="B126">
+        <v>929</v>
+      </c>
+      <c r="C126" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>537</v>
+      </c>
+      <c r="B127">
+        <v>101</v>
+      </c>
+      <c r="C127" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>537</v>
+      </c>
+      <c r="B128">
+        <v>116</v>
+      </c>
+      <c r="C128" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>537</v>
+      </c>
+      <c r="B129">
+        <v>3383</v>
+      </c>
+      <c r="C129" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>537</v>
+      </c>
+      <c r="B130">
+        <v>3202</v>
+      </c>
+      <c r="C130" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>537</v>
+      </c>
+      <c r="B131">
+        <v>171</v>
+      </c>
+      <c r="C131" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>537</v>
+      </c>
+      <c r="B132">
+        <v>1382</v>
+      </c>
+      <c r="C132" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>537</v>
+      </c>
+      <c r="B133">
+        <v>67</v>
+      </c>
+      <c r="C133" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>537</v>
+      </c>
+      <c r="B134">
+        <v>760</v>
+      </c>
+      <c r="C134" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>537</v>
+      </c>
+      <c r="B135">
+        <v>808</v>
+      </c>
+      <c r="C135" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>537</v>
+      </c>
+      <c r="B136">
+        <v>46</v>
+      </c>
+      <c r="C136" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137">
+        <v>1139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>537</v>
+      </c>
+      <c r="B138">
+        <v>125</v>
+      </c>
+      <c r="C138" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>537</v>
+      </c>
+      <c r="B139">
+        <v>1309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B140">
+        <v>971</v>
+      </c>
+      <c r="C140" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>537</v>
+      </c>
+      <c r="B141">
+        <v>234</v>
+      </c>
+      <c r="C141" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>537</v>
+      </c>
+      <c r="B142">
+        <v>1363</v>
+      </c>
+      <c r="C142" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>537</v>
+      </c>
+      <c r="B143">
+        <v>883</v>
+      </c>
+      <c r="C143" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>537</v>
+      </c>
+      <c r="B144">
+        <v>2280</v>
+      </c>
+      <c r="C144" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>537</v>
+      </c>
+      <c r="B145">
+        <v>383</v>
+      </c>
+      <c r="C145" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>537</v>
+      </c>
+      <c r="B146">
+        <v>2701</v>
+      </c>
+      <c r="C146" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>537</v>
+      </c>
+      <c r="B147">
+        <v>1053</v>
+      </c>
+      <c r="C147" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/eve/ecv-cress-side-data.xlsx
+++ b/tabular/eve/ecv-cress-side-data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03802C-E3B8-FC40-AE8B-B27DE38F1F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9493836-5437-DA4A-9565-126C42C1ECD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="460" windowWidth="38340" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="460" windowWidth="38340" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ecv-circo-side-data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="invertebrates" sheetId="1" r:id="rId1"/>
+    <sheet name="vertebrates" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="627">
   <si>
     <t>record_id</t>
   </si>
@@ -1803,6 +1804,105 @@
   </si>
   <si>
     <t>ADDG01070450.1</t>
+  </si>
+  <si>
+    <t>TCGCAAGTAGTAAACTCCGCCCCAGACAAGAATAACCACTCCCCTTTTAAGGCGTGGGTGTTTACCATTAACAACCCAGAGTTTAGCGACGACAAGTTGAAAGAACAGCTTAGCGCTTATCCGCCATTAACAGAATATGTCTTTCAGCGGGAACAAGGGGCGTCCGGGACGCCACATTTCCAGGGACTCGTTCGCTTCTGCCGTCAGCTCAGTCGTAGACAGCTTACTGATAGTTTGCCTTTGCTTCGCAGCGCCCATCTTGAGCATTGTAAGAATGTTAAGGCTTCTCGGAAGTATTGCTCGAAAACATTGACCCGAATAGGCCTGTGCCATGCTAAAGGGTCACCAGCTGTATCGCCATTGGAGGAATGTGTTGATGATTTGAATAAAAATAAAGGCTTCAAACCCATACAAGAGTTGATGTCAAATCATCCTTTATTGTACATGAAGCATTATAGAGCGCTTCAACACCTTCATGCAATGAATGTAAAAGATCGTACAGAGAAAACAGTGTGCCTCGCATTAATCGGCCCAACAGGAACAGGGAAAAATAAAAAGGCATTTGAATTAGCACAAGCAGCAGGCAGTTACTATTTTAAACCACCAGGACAGTGGTGGGATGGGTATATGGGGCAAGAAGTAGTCGTTATTGACGAATTTGATGGAGAAAAAGATATGCCATATATGCAA</t>
+  </si>
+  <si>
+    <t>Rep[Muscovy-duck-circovirus(+)]</t>
+  </si>
+  <si>
+    <t>FYBX02009564.1</t>
+  </si>
+  <si>
+    <t>GCA_900186335.2_Eburgeri_3.2_genomic.fna</t>
+  </si>
+  <si>
+    <t>Eburgeri_3.2</t>
+  </si>
+  <si>
+    <t>Eptatretus</t>
+  </si>
+  <si>
+    <t>Myxinidae</t>
+  </si>
+  <si>
+    <t>Myxiniformes</t>
+  </si>
+  <si>
+    <t>Vertebrates</t>
+  </si>
+  <si>
+    <t>Eptatretus burgeri</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_202074</t>
+  </si>
+  <si>
+    <t>AAGGCCTGGTGCTTTTTCCAAATCCAACCCGGTGAGGATAAAGAATTGGAGGAGTCATTGCTCGCATATCCGACAATAGTGGAATTTGTATTTCATAAACAAAAAGGAGATAATAGTAAAATACATTGGCAAGGCTTTATGAGAGTGAGAAACAAAGTTACCTTGCAGTGCCGTTGCTTGAGGGTAGCCATTTTGAGCCCTGTCGCAATGTGAAAGCAGCCCGCGCATACTGCCGGAGAAGTAGGACACGGGTAAGCGAGGCTGTGTCATACTGGTTGAAAGCCTCAGCTGCAGGTCAGCTTGAGGAGTGTTTGAAAGGAGTAGGTCAAGGTTGCACCGCGATGGAAAAATTCAGACAAGAGTCGGTAGTAGATTTTTTTCAAGCACCATCAGCGCTTGTTGTTTTATTATGGAATGTATTCACCACCAAGAAAATATAAAACACAAGTATTAGTCATGTTCGGACATACAGGAGTAGGCAAAAGCATGAAAGCATTTGAAGTGGGAATGGAAGAAGATTTCTGGGTGAAGCCGCCCGGGCAATGGTTTGATGGCTACAGAGGGCAAAAAGTTGCCATCCTCATTGAATTTCGTGGGGATTTGCCGTGGGAGTTGATTGTGCAGTTGCTGGATCGCTACCCAATGCTGGTGTCAGTGAAAGTCGCATTTGCGCAGTGGTCACCACAGCTCTTGGTGATAACATCAAACATGCCCCTGGATGCCTGGTATCCAAAGGAGCGGTTTACTGTTTTGGAGCGACGGTTGAACCACACTCTCCACCTCACTGCTTGTAAGTATGAATGCGGTGCTTTAAAAATAACCGCCTGAGAGGATAATTGTTTGCTAATTTTTCCA</t>
+  </si>
+  <si>
+    <t>putative-Rep-protein[Circo-like-virus-Brazil-hs1(-)]</t>
+  </si>
+  <si>
+    <t>FYBX02009731.1</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_757903</t>
+  </si>
+  <si>
+    <t>ATGCTTCGACACAGAAAACATTCACGACTTCTTGTTAATCTTCATTCACGACTTCATGATAAGAATTTATTCCAGTATCTGGCTGTACACACGATTGAAAGACATTTTAAAACACTTGTAGTACTTTGGGGAGAAAGCGGAGCAGGAAAAAGCCGTAAAGCACTTGAATTCGCAAAGCAAAGTAAAACTTGCTATTATAAACCACCTGGTGTATGGTTCGAGGGATATATAGATCAACATACTGTAATAATGGATGAGTTCAGAGGAGAAAAAGACATGGAATATGGTACACTGTTGTCAGTGCTCGATAGATACCCATGGCATCCACCGATTAAAGGAGGTTTCTGTAATTTGTGGGCAAAGTTGATAATAATTACAGAAAATAAAAGACCACAAGATTGGTATGCCAATGAGGACTATTAACCTTTGAAGAGGAGAATCACAAATTTAACTTAAGTCGTTAACTGGTGCGGTGCTCCTCATAAATCA</t>
+  </si>
+  <si>
+    <t>FYBX02010763.1</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_261632</t>
+  </si>
+  <si>
+    <t>CATCGAGTAAAGCAGGGTCGCTGCATAAGTGTTTGGAGAATGTGGGAAAAGGATACACTGGAATGGAAGAATATAGACAGGAGTCGGTTGTTGATTTTTTTCAAGCATCATCAACGCTTGTTGTTTTATTTTGCCATGTATACACCACTGAGAGCATTCAAGACGCAGGTGCTGGTGTTGTATGGGGATACAGGAGCGGGGAAAAGCAAGCTCGCATTTGAAACAGGCATGGGAGAAGACTTTTGGGTGAAGCCGCCGGGACAATGGTTTGATGGATATAGAGGGCAAAAAGTTGCCATCCTACACGAGTTTCGCGGAGAAATGCCTTGGCAATTGTTGCTGCAGTTGCTGGATCGCTATCCGATGCTTGTCCCGGTGAAAGGAGCATTTGCGCAGTGGACGCCGCAGCTCGTGGTTATAACAAACGCGCCACCACATGCCTGGTATCCAACGGAACAGTTTCCTGTTTTGGAGCGACGGTTGAACCATACACTACGCCTAACAGCCCGTAAGTAT</t>
+  </si>
+  <si>
+    <t>replication-associated-protein[Circoviridae-5-LDMD-2013(+)]</t>
+  </si>
+  <si>
+    <t>FYBX02010462.1</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_739554</t>
+  </si>
+  <si>
+    <t>TTCTCCTGTGACCTTGACCTAATTTTGACCTTGACCTACATGGCCTCGAGAAAAAAAAAAAACAGTTGCATTATATTAGCACTAATAGGACCAACAGGAACAGGGAAAAGCAAAGCTGCCTTTGAAATAGCACAACAAAGTAACTCTTTTCATTTTAAGCCGCCAGGACAGTGGTGGGATGGATACATTGGGCAACAAGTTTGTGTTCTCGATGAATTTGACGGAGAACACGATAGGCCTTATACGGCATTGTTGCAACTCCTAGATCGCTATCCACTGCAACTGCCAGTAAAAGGATCATTTACAGTGTTCCAAGTTTCACTAGTAGTCATCACTTCTAACAAGAACGTAGAAGACTGGTACCCCATCCACGATACAGCAGCACTTCGACGCAGATTAGAGCAAATCCTCTACTTCAAAGAAACACCAATTGTAAGTATTAACCCG</t>
+  </si>
+  <si>
+    <t>FYBX02009664.1</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_1052312</t>
+  </si>
+  <si>
+    <t>TTTTCGTCATTACAAGAATTTATTTCAGTATCTAGCAGCACATACAAAGAAAGAGATTTTAAAACAGTTGTATTTGTATTTTGGGGAGAAAGCGGTGCAGGAAAAAGTCAGAAAGCATTGGAGTTAGCAAAGCAAAGTAAAACATACTATTATAAACCACCAGGAGTGTGGTTTGATGGATATATAGATCAGCACACAGTGATAATGGATGAATTTAGAGGAGAAAAAGAAATGGAATATGGTACAATGCTCGATAGATACCCATGGCAAACACCAATAAAAGGAGGTTATTGTAGCTTTCGGGCAAAGTTGATAATCATTACATCAAACAAGAGGCCACAGGATTGGTACCGCAATGAGGAATATCAACCTTTGAAGATAAGAATAACACATATGTTCTTGTGAAAC</t>
+  </si>
+  <si>
+    <t>Rep[Cyclovirus-ZM36a(+)]</t>
+  </si>
+  <si>
+    <t>FYBX02000097.1</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_53697</t>
+  </si>
+  <si>
+    <t>AGAGAACAGAGAACAGAGAAAACTGTGTGCCTAGCGCTAATAGGCCCCACAGGTACAGGAAAAAGTAAAACCGCCTTTGAGTTAGCGTTAGCAGCTAGCAGTTACTATTTTAAGCCACCAGGGCAGTGGTGGGATGGGTATATGGGGCAAGAGGTGGTTGTCATGGATGAATTCGATGGAGAAAAAGATATGCCATATACGGCATTGTTGCAACTGCTGGATCGTTATCCACTGAGAATCCAAGTGAAAGGGAGCTTCCAAAACTTCAACTCGCCACTTGTGGTGATCACCAGCAACAAAGGAGTCGAGGAGTGGTATCCATCGAATGGGCATTGTGAAGCATTGAAAAGGAGACTTGATCACGAGCTACGCCTTCAAGTCAAGCCACAGGTTAGTCGTGTTGTTTCTTTCCCATTT</t>
+  </si>
+  <si>
+    <t>FYBX02010188.1</t>
+  </si>
+  <si>
+    <t>Eptatretus_burgeri_434618</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +2045,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2137,6 +2237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2298,10 +2404,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2660,7 +2770,7 @@
   <dimension ref="A1:S147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="A1:S1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11355,10 +11465,459 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B119256-F450-0C4C-A776-0AF849B295DC}">
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D1">
+        <v>1314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1" t="s">
+        <v>599</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1">
+        <v>434618</v>
+      </c>
+      <c r="S1">
+        <v>435034</v>
+      </c>
+      <c r="T1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U1">
+        <v>417</v>
+      </c>
+      <c r="V1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2">
+        <v>1518</v>
+      </c>
+      <c r="E2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K2" t="s">
+        <v>600</v>
+      </c>
+      <c r="L2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>598</v>
+      </c>
+      <c r="O2" t="s">
+        <v>597</v>
+      </c>
+      <c r="P2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <v>53697</v>
+      </c>
+      <c r="S2">
+        <v>54104</v>
+      </c>
+      <c r="T2" t="s">
+        <v>621</v>
+      </c>
+      <c r="U2">
+        <v>408</v>
+      </c>
+      <c r="V2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3">
+        <v>1520</v>
+      </c>
+      <c r="E3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>601</v>
+      </c>
+      <c r="K3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L3" t="s">
+        <v>599</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>598</v>
+      </c>
+      <c r="O3" t="s">
+        <v>597</v>
+      </c>
+      <c r="P3" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>1052312</v>
+      </c>
+      <c r="S3">
+        <v>1052758</v>
+      </c>
+      <c r="T3" t="s">
+        <v>287</v>
+      </c>
+      <c r="U3">
+        <v>447</v>
+      </c>
+      <c r="V3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D4">
+        <v>1575</v>
+      </c>
+      <c r="E4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>601</v>
+      </c>
+      <c r="K4" t="s">
+        <v>600</v>
+      </c>
+      <c r="L4" t="s">
+        <v>599</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>598</v>
+      </c>
+      <c r="O4" t="s">
+        <v>597</v>
+      </c>
+      <c r="P4" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <v>739554</v>
+      </c>
+      <c r="S4">
+        <v>740069</v>
+      </c>
+      <c r="T4" t="s">
+        <v>614</v>
+      </c>
+      <c r="U4">
+        <v>516</v>
+      </c>
+      <c r="V4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5">
+        <v>1604</v>
+      </c>
+      <c r="E5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>601</v>
+      </c>
+      <c r="K5" t="s">
+        <v>600</v>
+      </c>
+      <c r="L5" t="s">
+        <v>599</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>598</v>
+      </c>
+      <c r="O5" t="s">
+        <v>597</v>
+      </c>
+      <c r="P5" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>261632</v>
+      </c>
+      <c r="S5">
+        <v>262120</v>
+      </c>
+      <c r="T5" t="s">
+        <v>287</v>
+      </c>
+      <c r="U5">
+        <v>489</v>
+      </c>
+      <c r="V5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6">
+        <v>2028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>601</v>
+      </c>
+      <c r="K6" t="s">
+        <v>600</v>
+      </c>
+      <c r="L6" t="s">
+        <v>599</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>598</v>
+      </c>
+      <c r="O6" t="s">
+        <v>597</v>
+      </c>
+      <c r="P6" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>757903</v>
+      </c>
+      <c r="S6">
+        <v>758757</v>
+      </c>
+      <c r="T6" t="s">
+        <v>607</v>
+      </c>
+      <c r="U6">
+        <v>855</v>
+      </c>
+      <c r="V6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7">
+        <v>2167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L7" t="s">
+        <v>599</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>598</v>
+      </c>
+      <c r="O7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <v>202074</v>
+      </c>
+      <c r="S7">
+        <v>202763</v>
+      </c>
+      <c r="T7" t="s">
+        <v>595</v>
+      </c>
+      <c r="U7">
+        <v>690</v>
+      </c>
+      <c r="V7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84A1724-2182-F444-B2DB-F96B7CF97E59}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C147" sqref="A2:C147"/>
     </sheetView>
   </sheetViews>
